--- a/Si4432 calculator.xlsx
+++ b/Si4432 calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ps2_ctrl_trx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PS2Transceiver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA71309A-3E8A-4C56-BF6B-B609261DBA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2E27BB-5802-46D9-A469-9697893611C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="5610" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{523F06E5-833D-4CD8-9989-96DD4B363D68}"/>
+    <workbookView xWindow="1980" yWindow="1920" windowWidth="21600" windowHeight="11430" activeTab="2" xr2:uid="{523F06E5-833D-4CD8-9989-96DD4B363D68}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
     <row r="1" spans="1:24" s="25" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="str">
         <f>"Carrier Frequency Setting (resulting frequency: "&amp;B2+E3*B3/100&amp;" +/- "&amp;K6/1000&amp;" MHz)"</f>
-        <v>Carrier Frequency Setting (resulting frequency: 433.5 +/- 0.15 MHz)</v>
+        <v>Carrier Frequency Setting (resulting frequency: 434.5 +/- 0.15 MHz)</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>125</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="4" t="str">
         <f>DEC2HEX(VLOOKUP(E2,LUT!L2:M3,2,FALSE)*64+H2*32+_xlfn.BITAND(N2,63),2)</f>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="V3" s="4" t="str">
         <f>DEC2HEX(E3,2)</f>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="W3" s="4" t="str">
         <f>DEC2HEX(B3,2)</f>
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C6D08B-DD7F-4EF7-823D-D204DAB3142C}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B13" s="11" t="str">
         <f>Settings!V3</f>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="C13" s="11" t="str">
         <f>Settings!W3</f>
@@ -2428,11 +2428,11 @@
       <c r="M13" s="11"/>
       <c r="O13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>0x01, 0x32,  // 0x79-7A</v>
+        <v>0x03, 0x32,  // 0x79-7A</v>
       </c>
       <c r="Q13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>0132</v>
+        <v>0332</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BF289C-2946-440E-B639-F2E59AC66B8E}">
   <dimension ref="A1:T257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
